--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl4-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl4-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -540,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2400906666666667</v>
+        <v>0.8774723333333333</v>
       </c>
       <c r="H2">
-        <v>0.720272</v>
+        <v>2.632417</v>
       </c>
       <c r="I2">
-        <v>0.0002162447659744526</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="J2">
-        <v>0.0002162447659744527</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -570,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.06290855648</v>
+        <v>0.22991530078</v>
       </c>
       <c r="R2">
-        <v>0.56617700832</v>
+        <v>2.06923770702</v>
       </c>
       <c r="S2">
-        <v>0.0002162447659744526</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="T2">
-        <v>0.0002162447659744527</v>
+        <v>0.0007088393434259271</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +590,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -608,10 +611,10 @@
         <v>0.254913</v>
       </c>
       <c r="I3">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="J3">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -638,10 +641,10 @@
         <v>0.20037691278</v>
       </c>
       <c r="S3">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="T3">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>62.54623800000001</v>
+        <v>71.07177233333334</v>
       </c>
       <c r="H4">
-        <v>187.638714</v>
+        <v>213.215317</v>
       </c>
       <c r="I4">
-        <v>0.05633412071644775</v>
+        <v>0.05741317021985155</v>
       </c>
       <c r="J4">
-        <v>0.05633412071644776</v>
+        <v>0.05741317021985154</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -694,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>16.38836528076</v>
+        <v>18.62222578678</v>
       </c>
       <c r="R4">
-        <v>147.49528752684</v>
+        <v>167.60003208102</v>
       </c>
       <c r="S4">
-        <v>0.05633412071644775</v>
+        <v>0.05741317021985155</v>
       </c>
       <c r="T4">
-        <v>0.05633412071644776</v>
+        <v>0.05741317021985154</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +714,31 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>937.1581420000001</v>
+        <v>0.03596933333333333</v>
       </c>
       <c r="H5">
-        <v>2811.474426</v>
+        <v>0.107908</v>
       </c>
       <c r="I5">
-        <v>0.8440792218683062</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="J5">
-        <v>0.8440792218683063</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -756,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>245.55417636684</v>
+        <v>0.009424684719999998</v>
       </c>
       <c r="R5">
-        <v>2209.98758730156</v>
+        <v>0.08482216248</v>
       </c>
       <c r="S5">
-        <v>0.8440792218683062</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="T5">
-        <v>0.8440792218683063</v>
+        <v>2.905673222380989E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +776,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>110.2432883333333</v>
+        <v>1112.75885</v>
       </c>
       <c r="H6">
-        <v>330.729865</v>
+        <v>3338.27655</v>
       </c>
       <c r="I6">
-        <v>0.09929388100285352</v>
+        <v>0.8989084016233635</v>
       </c>
       <c r="J6">
-        <v>0.09929388100285354</v>
+        <v>0.8989084016233634</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -818,16 +821,78 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>28.8859464091</v>
+        <v>291.565073877</v>
       </c>
       <c r="R6">
-        <v>259.9735176819</v>
+        <v>2624.085664893</v>
       </c>
       <c r="S6">
-        <v>0.09929388100285352</v>
+        <v>0.8989084016233635</v>
       </c>
       <c r="T6">
-        <v>0.09929388100285354</v>
+        <v>0.8989084016233634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>53.07112033333333</v>
+      </c>
+      <c r="H7">
+        <v>159.213361</v>
+      </c>
+      <c r="I7">
+        <v>0.04287189084247485</v>
+      </c>
+      <c r="J7">
+        <v>0.04287189084247484</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.26202</v>
+      </c>
+      <c r="N7">
+        <v>0.78606</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>13.90569494974</v>
+      </c>
+      <c r="R7">
+        <v>125.15125454766</v>
+      </c>
+      <c r="S7">
+        <v>0.04287189084247485</v>
+      </c>
+      <c r="T7">
+        <v>0.04287189084247484</v>
       </c>
     </row>
   </sheetData>
